--- a/2025-10-18/18_combined_confidence.xlsx
+++ b/2025-10-18/18_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,123 +473,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Västerås SK  - GIF Sundsvall: 12:00</t>
+          <t>AS Saint-Étienne  - Le Mans FC: 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Västerås SK</t>
+          <t>AS Saint-Étienne</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FC Barcelona  - Girona FC: 15:15</t>
+          <t>UE Santa Coloma B - Sporting Club Escaldes : 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FC Barcelona</t>
+          <t>Sporting Club Escaldes</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
-      </c>
-      <c r="E3" t="n">
-        <v>91</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fulham FC - Arsenal FC : 17:30</t>
+          <t>Västerås SK ✓ - GIF Sundsvall: 2:1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Västerås SK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
-      </c>
-      <c r="E4" t="n">
-        <v>74</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>1.62</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Al-Ain FC  - FC Baniyas: 14:05</t>
+          <t>Thep Xanh Nam Dinh FC X - Becamex Ho Chi Minh City FC: 1:2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Al-Ain FC</t>
+          <t>Thep Xanh Nam Dinh FC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>1.36</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Olympique Marseille  - Le Havre AC: 20:05</t>
+          <t>Al-Ain FC ✓ - FC Baniyas: 4:0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Olympique Marseille</t>
+          <t>Al-Ain FC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
         <v>100</v>
       </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>1.45</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Club Nacional  - Miramar Misiones: 22:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Club Nacional</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>59</v>
+      </c>
+      <c r="D7" t="n">
+        <v>86</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Olympique Marseille  - Le Havre AC: 20:05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>58</v>
+      </c>
+      <c r="D8" t="n">
+        <v>97</v>
+      </c>
+      <c r="E8" t="n">
+        <v>94</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2025-10-18/18_combined_confidence.xlsx
+++ b/2025-10-18/18_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,69 +473,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AS Saint-Étienne  - Le Mans FC: 19:00</t>
+          <t>GNK Dinamo Zagreb ✓ - NK Osijek: 2:1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AS Saint-Étienne</t>
+          <t>GNK Dinamo Zagreb</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>1.36</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UE Santa Coloma B - Sporting Club Escaldes : 19:30</t>
+          <t>Bayern Munich ✓ - Borussia Dortmund: 2:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sporting Club Escaldes</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>86</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>73</v>
+      </c>
+      <c r="E3" t="n">
+        <v>83</v>
+      </c>
       <c r="F3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>1.4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Västerås SK ✓ - GIF Sundsvall: 2:1</t>
+          <t>PSV Eindhoven ✓ - Go Ahead Eagles: 2:1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Västerås SK</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -546,43 +556,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thep Xanh Nam Dinh FC X - Becamex Ho Chi Minh City FC: 1:2</t>
+          <t>FC Basel 1893 ✓ - FC Winterthur: 3:0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thep Xanh Nam Dinh FC</t>
+          <t>FC Basel 1893</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Al-Ain FC ✓ - FC Baniyas: 4:0</t>
+          <t>AS Saint-Étienne X - Le Mans FC: 2:3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Al-Ain FC</t>
+          <t>AS Saint-Étienne</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
         <v>100</v>
@@ -593,23 +603,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Club Nacional  - Miramar Misiones: 22:30</t>
+          <t>UE Santa Coloma B - Sporting Club Escaldes ✓: 0:3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Club Nacional</t>
+          <t>Sporting Club Escaldes</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
         <v>86</v>
@@ -618,32 +628,308 @@
       <c r="F7" t="n">
         <v>1.67</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Olympique Marseille  - Le Havre AC: 20:05</t>
+          <t>Västerås SK ✓ - GIF Sundsvall: 2:1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Västerås SK</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>70</v>
+      </c>
+      <c r="D8" t="n">
+        <v>85</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Basaksehir FK - Galatasaray ✓: 1:2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>70</v>
+      </c>
+      <c r="D9" t="n">
+        <v>82</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Thep Xanh Nam Dinh FC X - Becamex Ho Chi Minh City FC: 1:2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Thep Xanh Nam Dinh FC</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>67</v>
+      </c>
+      <c r="D10" t="n">
+        <v>75</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SK Slavia Prague  - FC Zlin: 0:0</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SK Slavia Prague</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>66</v>
+      </c>
+      <c r="D11" t="n">
+        <v>75</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FC Barcelona ✓ - Girona FC: 2:1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>65</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>83</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Fulham FC - Arsenal FC ✓: 0:1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>60</v>
+      </c>
+      <c r="D13" t="n">
+        <v>78</v>
+      </c>
+      <c r="E13" t="n">
+        <v>76</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Al-Ain FC ✓ - FC Baniyas: 4:0</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Al-Ain FC</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>59</v>
+      </c>
+      <c r="D14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Club Nacional ✓ - Miramar Misiones: 3:1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Club Nacional</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>59</v>
+      </c>
+      <c r="D15" t="n">
+        <v>86</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Olympique Marseille ✓ - Le Havre AC: 6:2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Olympique Marseille</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C16" t="n">
         <v>58</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D16" t="n">
         <v>97</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E16" t="n">
         <v>94</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F16" t="n">
         <v>1.38</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SK Brann ✓ - FK Haugesund: 4:1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SK Brann</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>57</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Oud-Heverlee Leuven - Club Brugge KV ✓: 0:1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>55</v>
+      </c>
+      <c r="D18" t="n">
+        <v>86</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
